--- a/מצגות/L16 - תרגול ניתוח הבדיקות וטבלת נעקבות - אש תוספים תרגיל לבית.xlsx
+++ b/מצגות/L16 - תרגול ניתוח הבדיקות וטבלת נעקבות - אש תוספים תרגיל לבית.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgalil-my.sharepoint.com/personal/alexg_wgalil_ac_il/Documents/Documents/Personal/מתנס/QA/QA-13-06/מצגות/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-13-06\מצגות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{455D9ADC-B3B8-4F0F-A8CA-64E6F062E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310ED2C7-6D52-4E6D-A02D-6CB5786B7C89}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="טבלת דרישות" sheetId="1" r:id="rId1"/>
     <sheet name="תסריטי בדיקה" sheetId="2" r:id="rId2"/>
+    <sheet name="טבלת דרישות (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
   <si>
     <t>דרישת אב</t>
   </si>
@@ -106,7 +106,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +116,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,7 +346,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,7 +356,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,7 +367,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -377,7 +377,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -390,7 +390,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,7 +400,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +411,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,7 +421,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -432,7 +432,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,7 +442,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,7 +455,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,7 +465,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,7 +476,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,7 +486,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,7 +497,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -507,7 +507,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,7 +520,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -541,7 +541,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -562,7 +562,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -585,7 +585,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,7 +595,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -606,7 +606,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,7 +616,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -627,7 +627,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,7 +637,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -731,7 +731,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -741,7 +741,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,7 +752,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -762,7 +762,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -773,7 +773,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -783,7 +783,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -796,7 +796,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -806,7 +806,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -817,7 +817,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -827,7 +827,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -838,7 +838,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -848,7 +848,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -861,7 +861,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -871,7 +871,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -882,7 +882,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -892,7 +892,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -903,7 +903,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -913,7 +913,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -926,7 +926,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -936,7 +936,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -947,7 +947,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -957,7 +957,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -968,7 +968,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +978,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -991,7 +991,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1001,7 +1001,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1012,7 +1012,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1022,7 +1022,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1033,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1043,7 +1043,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,7 +1128,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1150,7 +1150,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1160,7 +1160,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1172,7 +1172,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,7 +1182,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1195,7 +1195,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1217,7 +1217,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1227,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1239,7 +1239,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1249,7 +1249,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1262,7 +1262,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1272,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1284,7 +1284,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1306,7 +1306,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1316,7 +1316,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1329,7 +1329,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1339,7 +1339,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1350,7 +1350,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1360,7 +1360,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1371,7 +1371,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1392,7 +1392,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,7 +1402,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1415,7 +1415,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1425,7 +1425,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1436,7 +1436,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1446,7 +1446,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1457,7 +1457,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1467,7 +1467,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1480,7 +1480,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1490,7 +1490,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1501,7 +1501,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1511,7 +1511,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1522,7 +1522,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1532,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1545,7 +1545,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1555,7 +1555,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1566,7 +1566,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1576,7 +1576,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1587,7 +1587,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1597,7 +1597,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1610,7 +1610,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1620,7 +1620,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1631,7 +1631,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1641,7 +1641,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1652,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1662,7 +1662,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1675,7 +1675,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1685,7 +1685,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1696,7 +1696,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1706,7 +1706,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1717,7 +1717,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1727,7 +1727,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1740,7 +1740,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1750,7 +1750,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1761,7 +1761,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1771,7 +1771,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1782,7 +1782,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1792,23 +1792,29 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> הפק דוח פניות ריק</t>
     </r>
+  </si>
+  <si>
+    <t>תהליך קניה</t>
+  </si>
+  <si>
+    <t>בדיקת תקינות סל קניות</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1816,7 +1822,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1824,21 +1830,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1846,7 +1852,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2233,15 +2239,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2251,9 +2248,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2311,61 +2305,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2374,31 +2323,88 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2780,254 +2786,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="11.625" style="9"/>
+    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="33" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="270.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:9" ht="270.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="28">
         <v>1</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38">
+    <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="28">
         <v>1.2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="28">
         <v>2</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="38">
+    <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="28">
         <v>1.3</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="28">
         <v>3</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41">
+    <row r="7" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="54">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="29">
         <v>2.1</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="29">
         <v>4</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="42">
+    <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="29">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="29">
         <v>5</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="44">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="46">
         <v>3</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="30">
         <v>3.1</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="30">
         <v>6</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45">
+    <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="30">
         <v>3.2</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="30">
         <v>7</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="45">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="30">
         <v>3.3</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="30">
         <v>8</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="6">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="56">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="56" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="5">
@@ -3046,11 +3052,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+    <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="5">
         <v>4.2</v>
       </c>
@@ -3067,11 +3073,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+    <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="5">
         <v>4.3</v>
       </c>
@@ -3088,354 +3094,347 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="48">
+    <row r="15" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="59">
         <v>5</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="31">
         <v>12</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49">
+    <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31">
         <v>5.2</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="31">
         <v>13</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="50">
+    <row r="17" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="40">
         <v>6</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="32">
         <v>6.1</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="32">
         <v>14</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32">
         <v>6.2</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="32">
         <v>15</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="41">
         <v>7</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="34">
         <v>7.1</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="34">
         <v>16</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54">
+    <row r="20" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34">
         <v>7.2</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="34">
         <v>17</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="57">
+    <row r="21" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43">
         <v>8</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="36">
         <v>8.1</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="36">
         <v>18</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58">
+    <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="36">
         <v>19</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58">
+    <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="36">
         <v>20</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -3451,6 +3450,13 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3459,188 +3465,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G131"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="10" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="10"/>
-    <col min="10" max="10" width="17.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.625" style="10"/>
+    <col min="1" max="1" width="20.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="7"/>
+    <col min="10" max="10" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="16" t="s">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="60"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="60"/>
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16" t="s">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="60"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="60"/>
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16" t="s">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="27">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="60"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="23">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3650,12 +3656,12 @@
         <v>38</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="27">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="23">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3665,12 +3671,12 @@
         <v>39</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="27">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="23">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3680,12 +3686,12 @@
         <v>42</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="27">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="23">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3695,196 +3701,196 @@
         <v>88</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="27">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="23">
         <v>5</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="27"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="16" t="s">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="60"/>
+      <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="16" t="s">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="60"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="60"/>
+      <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="16" t="s">
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="60"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="60"/>
+      <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="27">
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="60"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="23">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3894,12 +3900,12 @@
         <v>38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="27">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="60"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="23">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3909,12 +3915,12 @@
         <v>66</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="27">
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="60"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="23">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3924,12 +3930,12 @@
         <v>63</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="27">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="60"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="23">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3939,12 +3945,12 @@
         <v>113</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="27">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" s="60"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="23">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3954,12 +3960,12 @@
         <v>68</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="28">
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="24">
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3968,159 +3974,159 @@
       <c r="E41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="1">
         <v>8</v>
       </c>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="16" t="s">
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="60"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
+      <c r="B48" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="16" t="s">
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="60"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="60"/>
+      <c r="B50" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="16" t="s">
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="60"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="60"/>
+      <c r="B52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
       </c>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="27">
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="60"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="23">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4130,12 +4136,12 @@
         <v>38</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="27">
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="60"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="23">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4145,12 +4151,12 @@
         <v>71</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="27">
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="60"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="23">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4160,12 +4166,12 @@
         <v>128</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="28">
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="24">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -4174,168 +4180,168 @@
       <c r="E59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="F59" s="25"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="1">
         <v>5</v>
       </c>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="16" t="s">
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="60"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="60"/>
+      <c r="B66" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="16" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="16" t="s">
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="60"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="60"/>
+      <c r="B68" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="16" t="s">
+      <c r="D68" s="13"/>
+      <c r="E68" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G68" s="18"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="16" t="s">
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="60"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="60"/>
+      <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="16" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
       </c>
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="27">
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="60"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="23">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4345,12 +4351,12 @@
         <v>38</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="27">
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="60"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="23">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4360,12 +4366,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="27">
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="60"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="23">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4375,12 +4381,12 @@
         <v>74</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="27">
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A77" s="60"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="23">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4390,12 +4396,12 @@
         <v>76</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="28">
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="60"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="24">
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4404,168 +4410,168 @@
       <c r="E78" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="18"/>
-    </row>
-    <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-    </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="F78" s="25"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A83" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="16" t="s">
+      <c r="D83" s="13"/>
+      <c r="E83" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="1">
         <v>6</v>
       </c>
-      <c r="G83" s="18"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="18"/>
-    </row>
-    <row r="85" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="16" t="s">
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="60"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="60"/>
+      <c r="B85" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="16" t="s">
+      <c r="D85" s="13"/>
+      <c r="E85" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="16" t="s">
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="60"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="60"/>
+      <c r="B87" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="16" t="s">
+      <c r="D87" s="13"/>
+      <c r="E87" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G87" s="18"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="16" t="s">
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="60"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="60"/>
+      <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="16" t="s">
+      <c r="C89" s="15"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23"/>
-    </row>
-    <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="24" t="s">
+      <c r="B92" s="13"/>
+      <c r="C92" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="F92" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="27">
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="60"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="23">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -4575,12 +4581,12 @@
         <v>38</v>
       </c>
       <c r="F93" s="3"/>
-      <c r="G93" s="18"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="27">
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="60"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="23">
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -4590,12 +4596,12 @@
         <v>70</v>
       </c>
       <c r="F94" s="3"/>
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="27">
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A95" s="60"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="23">
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -4605,12 +4611,12 @@
         <v>78</v>
       </c>
       <c r="F95" s="3"/>
-      <c r="G95" s="18"/>
-    </row>
-    <row r="96" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="28">
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="60"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="24">
         <v>4</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -4619,168 +4625,168 @@
       <c r="E96" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="23"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-    </row>
-    <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="15"/>
-    </row>
-    <row r="101" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="F96" s="25"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A101" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="16" t="s">
+      <c r="D101" s="13"/>
+      <c r="E101" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F101" s="1">
         <v>16</v>
       </c>
-      <c r="G101" s="18"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="18"/>
-    </row>
-    <row r="103" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="16" t="s">
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="60"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="60"/>
+      <c r="B103" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="1">
         <v>6</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="16" t="s">
+      <c r="D103" s="13"/>
+      <c r="E103" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G103" s="18"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="18"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="16" t="s">
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="60"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="60"/>
+      <c r="B105" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="16" t="s">
+      <c r="D105" s="13"/>
+      <c r="E105" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G105" s="18"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="18"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="16" t="s">
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="60"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="60"/>
+      <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="16" t="s">
+      <c r="C107" s="15"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F107" s="1">
         <v>6</v>
       </c>
-      <c r="G107" s="18"/>
-    </row>
-    <row r="108" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="23"/>
-    </row>
-    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="G109" s="15"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="24" t="s">
+      <c r="B110" s="13"/>
+      <c r="C110" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="25" t="s">
+      <c r="E110" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="26" t="s">
+      <c r="F110" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G110" s="18"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="27">
+      <c r="G110" s="14"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="60"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="23">
         <v>1</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -4790,12 +4796,12 @@
         <v>38</v>
       </c>
       <c r="F111" s="3"/>
-      <c r="G111" s="18"/>
-    </row>
-    <row r="112" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="27">
+      <c r="G111" s="14"/>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A112" s="60"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="23">
         <v>2</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -4805,12 +4811,12 @@
         <v>135</v>
       </c>
       <c r="F112" s="3"/>
-      <c r="G112" s="18"/>
-    </row>
-    <row r="113" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="28">
+      <c r="G112" s="14"/>
+    </row>
+    <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="60"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="24">
         <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4819,171 +4825,171 @@
       <c r="E113" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F113" s="29"/>
-      <c r="G113" s="18"/>
-    </row>
-    <row r="114" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="23"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-    </row>
-    <row r="116" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="15"/>
-    </row>
-    <row r="118" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="F113" s="25"/>
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A118" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="16" t="s">
+      <c r="D118" s="13"/>
+      <c r="E118" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F118" s="1">
         <v>18</v>
       </c>
-      <c r="G118" s="18"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="18"/>
-    </row>
-    <row r="120" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="16" t="s">
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="60"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="60"/>
+      <c r="B120" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C120" s="1">
         <v>7</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="16" t="s">
+      <c r="D120" s="13"/>
+      <c r="E120" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G120" s="18"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="18"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="16" t="s">
+      <c r="G120" s="14"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="60"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="60"/>
+      <c r="B122" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="16" t="s">
+      <c r="D122" s="13"/>
+      <c r="E122" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G122" s="18"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="18"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="16" t="s">
+      <c r="G122" s="14"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="60"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="60"/>
+      <c r="B124" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="16" t="s">
+      <c r="C124" s="15"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F124" s="1">
         <v>8</v>
       </c>
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="23"/>
-    </row>
-    <row r="126" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="20"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="18"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="24" t="s">
+      <c r="B127" s="13"/>
+      <c r="C127" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="26" t="s">
+      <c r="F127" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G127" s="18"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="27">
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="60"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="23">
         <v>1</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -4993,12 +4999,12 @@
         <v>38</v>
       </c>
       <c r="F128" s="3"/>
-      <c r="G128" s="18"/>
-    </row>
-    <row r="129" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="27">
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A129" s="60"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="23">
         <v>2</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -5008,12 +5014,12 @@
         <v>140</v>
       </c>
       <c r="F129" s="3"/>
-      <c r="G129" s="18"/>
-    </row>
-    <row r="130" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="28">
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="60"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="24">
         <v>3</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -5022,26 +5028,20 @@
       <c r="E130" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F130" s="29"/>
-      <c r="G130" s="18"/>
-    </row>
-    <row r="131" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="23"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="14"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A35:A41"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A101:A107"/>
@@ -5049,10 +5049,442 @@
     <mergeCell ref="A83:A89"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="A110:A113"/>
     <mergeCell ref="A118:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I34"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
+    <col min="2" max="9" width="21.21875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="11.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/מצגות/L16 - תרגול ניתוח הבדיקות וטבלת נעקבות - אש תוספים תרגיל לבית.xlsx
+++ b/מצגות/L16 - תרגול ניתוח הבדיקות וטבלת נעקבות - אש תוספים תרגיל לבית.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="טבלת דרישות" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="166">
   <si>
     <t>דרישת אב</t>
   </si>
@@ -1804,6 +1804,36 @@
   </si>
   <si>
     <t>בדיקת תקינות סל קניות</t>
+  </si>
+  <si>
+    <t>מסך ראשי</t>
+  </si>
+  <si>
+    <t>מסך חיפוש</t>
+  </si>
+  <si>
+    <t>ניהול משתמש</t>
+  </si>
+  <si>
+    <t>מסך רישום משתמש</t>
+  </si>
+  <si>
+    <t>מסך קטגוריה</t>
+  </si>
+  <si>
+    <t>מסך תת קטגוריה</t>
+  </si>
+  <si>
+    <t>מסך חיה</t>
+  </si>
+  <si>
+    <t>סל הקניות</t>
+  </si>
+  <si>
+    <t>מסך ביצוע הזמנה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רשימת הזמנות </t>
   </si>
 </sst>
 </file>
@@ -2335,6 +2365,48 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,52 +2431,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2789,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:I23"/>
     </sheetView>
   </sheetViews>
@@ -2838,16 +2868,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="28">
@@ -2867,10 +2897,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="28">
         <v>1.2</v>
       </c>
@@ -2888,10 +2918,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="28">
         <v>1.3</v>
       </c>
@@ -2909,14 +2939,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="54">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46">
         <v>2</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="29">
@@ -2936,10 +2966,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="29">
         <v>2.2000000000000002</v>
       </c>
@@ -2957,14 +2987,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="46">
+      <c r="A9" s="41"/>
+      <c r="B9" s="38">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="38" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="30">
@@ -2984,10 +3014,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="30">
         <v>3.2</v>
       </c>
@@ -3005,10 +3035,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="30">
         <v>3.3</v>
       </c>
@@ -3026,14 +3056,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="56">
+      <c r="A12" s="41"/>
+      <c r="B12" s="48">
         <v>4</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="48" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="5">
@@ -3053,10 +3083,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="5">
         <v>4.2</v>
       </c>
@@ -3074,10 +3104,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="5">
         <v>4.3</v>
       </c>
@@ -3095,11 +3125,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="59">
+      <c r="A15" s="42"/>
+      <c r="B15" s="51">
         <v>5</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="31" t="s">
@@ -3122,9 +3152,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31">
         <v>5.2</v>
@@ -3143,11 +3173,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="40">
+      <c r="A17" s="42"/>
+      <c r="B17" s="54">
         <v>6</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="54" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -3170,9 +3200,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32">
         <v>6.2</v>
@@ -3191,13 +3221,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="55">
         <v>7</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="55" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -3220,9 +3250,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34">
         <v>7.2</v>
@@ -3241,11 +3271,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43">
+      <c r="A21" s="53"/>
+      <c r="B21" s="57">
         <v>8</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="57" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3268,9 +3298,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36">
         <v>8.1999999999999993</v>
@@ -3289,9 +3319,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36">
         <v>8.3000000000000007</v>
@@ -3435,6 +3465,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -3450,13 +3487,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3489,15 +3519,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
@@ -3514,7 +3544,7 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3533,7 +3563,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3542,7 +3572,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
@@ -3559,7 +3589,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3568,7 +3598,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
@@ -3583,7 +3613,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -3592,7 +3622,7 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -3625,7 +3655,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13"/>
@@ -3644,7 +3674,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="13"/>
       <c r="C15" s="23">
         <v>1</v>
@@ -3659,7 +3689,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="13"/>
       <c r="C16" s="23">
         <v>2</v>
@@ -3674,7 +3704,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13"/>
       <c r="C17" s="23">
         <v>3</v>
@@ -3689,7 +3719,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13"/>
       <c r="C18" s="23">
         <v>4</v>
@@ -3704,7 +3734,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="13"/>
       <c r="C19" s="23">
         <v>5</v>
@@ -3719,7 +3749,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="13"/>
       <c r="C20" s="23"/>
       <c r="D20" s="1"/>
@@ -3728,7 +3758,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="13"/>
       <c r="C21" s="24"/>
       <c r="D21" s="2"/>
@@ -3756,7 +3786,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3775,7 +3805,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -3784,7 +3814,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
@@ -3801,7 +3831,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3810,7 +3840,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
@@ -3827,7 +3857,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3836,7 +3866,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
@@ -3869,7 +3899,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="13"/>
@@ -3888,7 +3918,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13"/>
       <c r="C36" s="23">
         <v>1</v>
@@ -3903,7 +3933,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="13"/>
       <c r="C37" s="23">
         <v>2</v>
@@ -3918,7 +3948,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="13"/>
       <c r="C38" s="23">
         <v>3</v>
@@ -3933,7 +3963,7 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="13"/>
       <c r="C39" s="23">
         <v>4</v>
@@ -3948,7 +3978,7 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="13"/>
       <c r="C40" s="23">
         <v>5</v>
@@ -3963,7 +3993,7 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="13"/>
       <c r="C41" s="24">
         <v>6</v>
@@ -3997,7 +4027,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -4016,7 +4046,7 @@
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -4025,7 +4055,7 @@
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="12" t="s">
         <v>9</v>
       </c>
@@ -4042,7 +4072,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -4051,7 +4081,7 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="12" t="s">
         <v>10</v>
       </c>
@@ -4066,7 +4096,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -4075,7 +4105,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="12" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4135,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="13"/>
@@ -4124,7 +4154,7 @@
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="13"/>
       <c r="C56" s="23">
         <v>1</v>
@@ -4139,7 +4169,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="13"/>
       <c r="C57" s="23">
         <v>2</v>
@@ -4154,7 +4184,7 @@
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="13"/>
       <c r="C58" s="23">
         <v>3</v>
@@ -4169,7 +4199,7 @@
       <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="13"/>
       <c r="C59" s="24">
         <v>4</v>
@@ -4212,7 +4242,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -4231,7 +4261,7 @@
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -4240,7 +4270,7 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="12" t="s">
         <v>9</v>
       </c>
@@ -4257,7 +4287,7 @@
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -4266,7 +4296,7 @@
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="60"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="12" t="s">
         <v>10</v>
       </c>
@@ -4281,7 +4311,7 @@
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="60"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -4290,7 +4320,7 @@
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="60"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
@@ -4320,7 +4350,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B73" s="13"/>
@@ -4339,7 +4369,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="13"/>
       <c r="C74" s="23">
         <v>1</v>
@@ -4354,7 +4384,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="13"/>
       <c r="C75" s="23">
         <v>2</v>
@@ -4369,7 +4399,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="13"/>
       <c r="C76" s="23">
         <v>3</v>
@@ -4384,7 +4414,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="13"/>
       <c r="C77" s="23">
         <v>4</v>
@@ -4399,7 +4429,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="13"/>
       <c r="C78" s="24">
         <v>5</v>
@@ -4442,7 +4472,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -4461,7 +4491,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -4470,7 +4500,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="12" t="s">
         <v>9</v>
       </c>
@@ -4487,7 +4517,7 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="60"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -4496,7 +4526,7 @@
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="60"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="12" t="s">
         <v>10</v>
       </c>
@@ -4511,7 +4541,7 @@
       <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="60"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -4520,7 +4550,7 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="60"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
@@ -4550,7 +4580,7 @@
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="13"/>
@@ -4569,7 +4599,7 @@
       <c r="G92" s="14"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="60"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="13"/>
       <c r="C93" s="23">
         <v>1</v>
@@ -4584,7 +4614,7 @@
       <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="13"/>
       <c r="C94" s="23">
         <v>2</v>
@@ -4599,7 +4629,7 @@
       <c r="G94" s="14"/>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A95" s="60"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="13"/>
       <c r="C95" s="23">
         <v>3</v>
@@ -4614,7 +4644,7 @@
       <c r="G95" s="14"/>
     </row>
     <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="13"/>
       <c r="C96" s="24">
         <v>4</v>
@@ -4657,7 +4687,7 @@
       <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A101" s="60" t="s">
+      <c r="A101" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B101" s="12" t="s">
@@ -4676,7 +4706,7 @@
       <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="60"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -4685,7 +4715,7 @@
       <c r="G102" s="14"/>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A103" s="60"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="12" t="s">
         <v>9</v>
       </c>
@@ -4702,7 +4732,7 @@
       <c r="G103" s="14"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="60"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -4711,7 +4741,7 @@
       <c r="G104" s="14"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="60"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="12" t="s">
         <v>10</v>
       </c>
@@ -4726,7 +4756,7 @@
       <c r="G105" s="14"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="60"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -4735,7 +4765,7 @@
       <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="60"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
@@ -4765,7 +4795,7 @@
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="60" t="s">
+      <c r="A110" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="13"/>
@@ -4784,7 +4814,7 @@
       <c r="G110" s="14"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="60"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="13"/>
       <c r="C111" s="23">
         <v>1</v>
@@ -4799,7 +4829,7 @@
       <c r="G111" s="14"/>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A112" s="60"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="13"/>
       <c r="C112" s="23">
         <v>2</v>
@@ -4814,7 +4844,7 @@
       <c r="G112" s="14"/>
     </row>
     <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="13"/>
       <c r="C113" s="24">
         <v>3</v>
@@ -4857,7 +4887,7 @@
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A118" s="60" t="s">
+      <c r="A118" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -4876,7 +4906,7 @@
       <c r="G118" s="14"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="60"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -4885,7 +4915,7 @@
       <c r="G119" s="14"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="60"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="12" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4932,7 @@
       <c r="G120" s="14"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="60"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -4911,7 +4941,7 @@
       <c r="G121" s="14"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="60"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="12" t="s">
         <v>10</v>
       </c>
@@ -4926,7 +4956,7 @@
       <c r="G122" s="14"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="60"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -4935,7 +4965,7 @@
       <c r="G123" s="14"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="60"/>
+      <c r="A124" s="61"/>
       <c r="B124" s="12" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +4998,7 @@
       <c r="G126" s="14"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="60" t="s">
+      <c r="A127" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B127" s="13"/>
@@ -4987,7 +5017,7 @@
       <c r="G127" s="14"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="60"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="13"/>
       <c r="C128" s="23">
         <v>1</v>
@@ -5002,7 +5032,7 @@
       <c r="G128" s="14"/>
     </row>
     <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A129" s="60"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="13"/>
       <c r="C129" s="23">
         <v>2</v>
@@ -5017,7 +5047,7 @@
       <c r="G129" s="14"/>
     </row>
     <row r="130" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="60"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="13"/>
       <c r="C130" s="24">
         <v>3</v>
@@ -5042,13 +5072,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A92:A96"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A5:A11"/>
@@ -5057,6 +5080,13 @@
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="A110:A113"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5065,10 +5095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5078,7 +5108,7 @@
     <col min="10" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -5108,14 +5138,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="28" t="s">
         <v>155</v>
       </c>
@@ -5125,10 +5155,10 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5136,10 +5166,10 @@
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5147,10 +5177,10 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -5158,10 +5188,10 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -5169,10 +5199,10 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -5180,10 +5210,10 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -5191,10 +5221,10 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -5202,10 +5232,10 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5213,10 +5243,10 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -5224,10 +5254,10 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -5235,9 +5265,9 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -5246,9 +5276,9 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -5257,9 +5287,9 @@
       <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
@@ -5268,9 +5298,9 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -5279,11 +5309,11 @@
       <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -5292,9 +5322,9 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -5303,9 +5333,9 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -5314,9 +5344,9 @@
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -5325,9 +5355,9 @@
       <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
@@ -5335,147 +5365,444 @@
       <c r="H22" s="37"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+    <row r="23" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="36" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="53"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="36"/>
+    </row>
+    <row r="42" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="36"/>
+    </row>
+    <row r="43" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="36"/>
+    </row>
+    <row r="46" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="36"/>
+    </row>
+    <row r="47" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="53"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="36"/>
+    </row>
+    <row r="48" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="53"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="53"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="36"/>
+    </row>
+    <row r="51" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="53"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="53"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="36"/>
+    </row>
+    <row r="53" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="53"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="53"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="36"/>
+    </row>
+    <row r="56" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="53"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="36"/>
+    </row>
+    <row r="57" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="53"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
+  <mergeCells count="57">
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -5483,6 +5810,21 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
